--- a/src/test/resources/CGM.xlsx
+++ b/src/test/resources/CGM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>CA-XLC33BI6</t>
+  </si>
+  <si>
+    <t>CA-Y0EUHJXD</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>

--- a/src/test/resources/CGM.xlsx
+++ b/src/test/resources/CGM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>CA-Y0EUHJXD</t>
+  </si>
+  <si>
+    <t>CA-352PEJSI</t>
+  </si>
+  <si>
+    <t>CA-B6MSL40J</t>
+  </si>
+  <si>
+    <t>CA-YS00H3C3</t>
+  </si>
+  <si>
+    <t>CA-4RR9V9VH</t>
+  </si>
+  <si>
+    <t>CA-92PLG6HU</t>
+  </si>
+  <si>
+    <t>CA-X6O6AEL5</t>
   </si>
 </sst>
 </file>
@@ -561,7 +579,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>

--- a/src/test/resources/CGM.xlsx
+++ b/src/test/resources/CGM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>CA-X6O6AEL5</t>
+  </si>
+  <si>
+    <t>CA-31LWURJY</t>
+  </si>
+  <si>
+    <t>CA-5Q21FZ1X</t>
+  </si>
+  <si>
+    <t>CA-756V081T</t>
   </si>
 </sst>
 </file>
@@ -579,7 +588,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>

--- a/src/test/resources/CGM.xlsx
+++ b/src/test/resources/CGM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>CA-756V081T</t>
+  </si>
+  <si>
+    <t>CA-T2KDKNAS</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>

--- a/src/test/resources/CGM.xlsx
+++ b/src/test/resources/CGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrainingTestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D1068-0235-464F-BFF3-5191AE22CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB02E8-723D-45E2-98BA-4174B57D07CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4200" windowWidth="21555" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>CA-HH3UQMEN</t>
-  </si>
-  <si>
     <t>CGM</t>
   </si>
   <si>
@@ -115,58 +112,13 @@
     <t>cgm</t>
   </si>
   <si>
-    <t>1FT5RD6GH89</t>
-  </si>
-  <si>
-    <t>CA-G4E2NNA0</t>
-  </si>
-  <si>
-    <t>CA-O6JLVJVY</t>
-  </si>
-  <si>
-    <t>CA-RKG6QEIP</t>
-  </si>
-  <si>
-    <t>CA-8MLP7VMF</t>
-  </si>
-  <si>
-    <t>CA-5WCRAL07</t>
-  </si>
-  <si>
-    <t>CA-XLC33BI6</t>
-  </si>
-  <si>
-    <t>CA-Y0EUHJXD</t>
-  </si>
-  <si>
-    <t>CA-352PEJSI</t>
-  </si>
-  <si>
-    <t>CA-B6MSL40J</t>
-  </si>
-  <si>
-    <t>CA-YS00H3C3</t>
-  </si>
-  <si>
-    <t>CA-4RR9V9VH</t>
-  </si>
-  <si>
-    <t>CA-92PLG6HU</t>
-  </si>
-  <si>
-    <t>CA-X6O6AEL5</t>
-  </si>
-  <si>
-    <t>CA-31LWURJY</t>
-  </si>
-  <si>
-    <t>CA-5Q21FZ1X</t>
-  </si>
-  <si>
-    <t>CA-756V081T</t>
-  </si>
-  <si>
     <t>CA-T2KDKNAS</t>
+  </si>
+  <si>
+    <t>1DT5RD6GH89</t>
+  </si>
+  <si>
+    <t>CA-JI1D7D6Z</t>
   </si>
 </sst>
 </file>
@@ -537,7 +489,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,28 +543,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
